--- a/cluster_results/comparison.xlsx
+++ b/cluster_results/comparison.xlsx
@@ -8,53 +8,53 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynewu/4.Github/Clustering-for-scRNAseq/cluster_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE32ACA-3533-1E4E-AEA9-35987A3F38F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C154A-851A-7B48-9ECB-F3DF72C36CE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="2800" windowWidth="18240" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="comparison" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
-    <t>ECA</t>
-  </si>
-  <si>
-    <t>ECP</t>
-  </si>
-  <si>
-    <t>sc10x 3c Seurat R 1</t>
-  </si>
-  <si>
-    <t>sc10x 3c Seurat R 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sc10x 3c Seurat Py </t>
-  </si>
-  <si>
-    <t>sc10x 5c Seurat R 1</t>
-  </si>
-  <si>
-    <t>sc10x 5c Seurat R 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sc10x 5c Seurat Py </t>
-  </si>
-  <si>
-    <t>ARI</t>
+    <t>Seurat R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>methods</t>
+    <t>Seurat python</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sc3 3c</t>
+    <t>sc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RaceID3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 cell lines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 cell lines</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,12 +84,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -113,11 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -133,6 +142,2858 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> cell lines</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Seurat python</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>comparison!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>comparison!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.898E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9029999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2509999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.234E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5589999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54408999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C08-3D45-A1E4-C17286AB192D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Seurat R</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>comparison!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>comparison!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5900000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1709999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7600000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5680000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9C08-3D45-A1E4-C17286AB192D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>sc3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>comparison!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>comparison!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.4900000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0529999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4239999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.456E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9C08-3D45-A1E4-C17286AB192D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>cooc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>comparison!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>comparison!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.46E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.598E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4700000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40762999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9C08-3D45-A1E4-C17286AB192D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>RaceID3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>comparison!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>comparison!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5180000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0339999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5869999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1919999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50460000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9C08-3D45-A1E4-C17286AB192D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="134664495"/>
+        <c:axId val="134521103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="134664495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Subsampling</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134521103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134521103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>ECA</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134664495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>5 cell lines</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Seurat python</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>comparison!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>comparison!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.64E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8040000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69467000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C08-3D45-A1E4-C17286AB192D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Seurat R</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>comparison!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>comparison!$B$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0400000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28006999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9C08-3D45-A1E4-C17286AB192D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>sc3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>comparison!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>comparison!$B$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.4799999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8650000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26296000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9C08-3D45-A1E4-C17286AB192D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>cooc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>comparison!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>comparison!$B$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1759999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13891000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85984000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9C08-3D45-A1E4-C17286AB192D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>RaceID3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>comparison!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>comparison!$B$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.4840000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29059000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.06717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9C08-3D45-A1E4-C17286AB192D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="134664495"/>
+        <c:axId val="134521103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="134664495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Subsampling</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134521103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134521103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>ECA</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134664495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CC13D7-29E4-AF46-8C22-84C53A5F6070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D529F569-5163-B346-9AB4-B0838E3A907D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,10 +3293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -445,122 +3306,275 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="5" max="5" width="14.19921875" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.898E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.9029999999999997E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.2509999999999999E-2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.234E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.5589999999999994E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.54408999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4" s="3">
+        <v>5.5900000000000004E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7.1709999999999996E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5.7600000000000004E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.5680000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>7.4900000000000001E-3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.10292</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.0529999999999997E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8.4239999999999995E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.456E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.46E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.598E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.4700000000000001E-3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.40762999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.5180000000000001E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.0339999999999995E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.5869999999999999E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.1919999999999997E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.50460000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.10276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
+      <c r="C13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19">
-      <c r="A2" s="2" t="s">
+    <row r="14" spans="1:7" ht="19">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2.64E-2</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="F14" s="3">
+        <v>9.8040000000000002E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.69467000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7.6E-3</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="F15" s="3">
+        <v>7.0400000000000003E-3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.28006999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>3.8700000000000002E-3</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.12677</v>
-      </c>
-      <c r="D2">
-        <v>0.40055000000000002</v>
+      <c r="B16" s="3">
+        <v>7.4799999999999997E-3</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="F16" s="3">
+        <v>8.8650000000000007E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.26296000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19">
-      <c r="A3" s="2" t="s">
+    <row r="17" spans="1:7" ht="19">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>3.8400000000000001E-3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.58752000000000004</v>
-      </c>
-      <c r="D3">
-        <v>0.65244000000000002</v>
+      <c r="B17" s="3">
+        <v>4.1759999999999999E-2</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="F17" s="3">
+        <v>0.13891000000000001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.85984000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19">
-      <c r="A4" s="2" t="s">
+    <row r="18" spans="1:7" ht="19">
+      <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.316E-2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.0971</v>
-      </c>
-      <c r="D4">
-        <v>0.42268</v>
+      <c r="B18" s="3">
+        <v>7.4840000000000004E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.29059000000000001</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.06717</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5.8700000000000002E-3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.23401</v>
-      </c>
-      <c r="D5">
-        <v>0.85855999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="19">
-      <c r="A12" s="2" t="s">
+    <row r="19" spans="1:7" ht="19">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
-        <v>5.2700000000000004E-3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.60448000000000002</v>
-      </c>
-      <c r="D12">
-        <v>0.51380000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5.3499999999999997E-3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.81115999999999999</v>
-      </c>
-      <c r="D13">
-        <v>0.66264999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="19">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.83E-2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.51888000000000001</v>
-      </c>
-      <c r="D14">
-        <v>0.60214000000000001</v>
+      <c r="B19" s="3">
+        <v>3.7150000000000002E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/cluster_results/comparison.xlsx
+++ b/cluster_results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynewu/4.Github/Clustering-for-scRNAseq/cluster_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C154A-851A-7B48-9ECB-F3DF72C36CE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB509958-6C71-7A44-B224-98B14E678F85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1142,6 +1142,9 @@
                 <c:pt idx="0">
                   <c:v>2.64E-2</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2689999999999998E-2</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>9.8040000000000002E-2</c:v>
                 </c:pt>
@@ -1224,6 +1227,9 @@
                 <c:pt idx="0">
                   <c:v>7.6E-3</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5700000000000003E-3</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>7.0400000000000003E-3</c:v>
                 </c:pt>
@@ -1306,6 +1312,9 @@
                 <c:pt idx="0">
                   <c:v>7.4799999999999997E-3</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16483</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>8.8650000000000007E-2</c:v>
                 </c:pt>
@@ -1388,6 +1397,9 @@
                 <c:pt idx="0">
                   <c:v>4.1759999999999999E-2</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9110000000000004E-2</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>0.13891000000000001</c:v>
                 </c:pt>
@@ -1469,6 +1481,9 @@
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>7.4840000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.726E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.29059000000000001</c:v>
@@ -2923,16 +2938,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2959,16 +2974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3296,7 +3311,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3497,7 +3512,9 @@
       <c r="B14" s="3">
         <v>2.64E-2</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3">
+        <v>2.2689999999999998E-2</v>
+      </c>
       <c r="F14" s="3">
         <v>9.8040000000000002E-2</v>
       </c>
@@ -3512,7 +3529,9 @@
       <c r="B15" s="3">
         <v>7.6E-3</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3">
+        <v>7.5700000000000003E-3</v>
+      </c>
       <c r="F15" s="3">
         <v>7.0400000000000003E-3</v>
       </c>
@@ -3527,7 +3546,9 @@
       <c r="B16" s="3">
         <v>7.4799999999999997E-3</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3">
+        <v>0.16483</v>
+      </c>
       <c r="F16" s="3">
         <v>8.8650000000000007E-2</v>
       </c>
@@ -3542,7 +3563,9 @@
       <c r="B17" s="3">
         <v>4.1759999999999999E-2</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3">
+        <v>9.9110000000000004E-2</v>
+      </c>
       <c r="F17" s="3">
         <v>0.13891000000000001</v>
       </c>
@@ -3556,6 +3579,9 @@
       </c>
       <c r="B18" s="3">
         <v>7.4840000000000004E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6.726E-2</v>
       </c>
       <c r="F18" s="3">
         <v>0.29059000000000001</v>

--- a/cluster_results/comparison.xlsx
+++ b/cluster_results/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynewu/4.Github/Clustering-for-scRNAseq/cluster_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB509958-6C71-7A44-B224-98B14E678F85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BFC46A-F4E9-FC49-8FF1-7E2F239DC021}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="1080" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="1" r:id="rId1"/>
@@ -803,6 +803,7 @@
         <c:axId val="134521103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -916,6 +917,7 @@
         <c:crossAx val="134664495"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1145,6 +1147,12 @@
                 <c:pt idx="1">
                   <c:v>2.2689999999999998E-2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6300000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>9.8040000000000002E-2</c:v>
                 </c:pt>
@@ -1230,6 +1238,12 @@
                 <c:pt idx="1">
                   <c:v>7.5700000000000003E-3</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5599999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5129999999999999E-2</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>7.0400000000000003E-3</c:v>
                 </c:pt>
@@ -1315,6 +1329,12 @@
                 <c:pt idx="1">
                   <c:v>0.16483</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.79E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17978</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>8.8650000000000007E-2</c:v>
                 </c:pt>
@@ -1400,6 +1420,12 @@
                 <c:pt idx="1">
                   <c:v>9.9110000000000004E-2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.879E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5769999999999998E-2</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>0.13891000000000001</c:v>
                 </c:pt>
@@ -1484,6 +1510,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.726E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17838999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2509999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.29059000000000001</c:v>
@@ -1625,6 +1657,7 @@
         <c:axId val="134521103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1738,6 +1771,7 @@
         <c:crossAx val="134664495"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2946,7 +2980,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2982,8 +3016,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3311,7 +3345,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3515,6 +3549,12 @@
       <c r="C14" s="3">
         <v>2.2689999999999998E-2</v>
       </c>
+      <c r="D14" s="3">
+        <v>8.6300000000000005E-3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7.3000000000000001E-3</v>
+      </c>
       <c r="F14" s="3">
         <v>9.8040000000000002E-2</v>
       </c>
@@ -3532,6 +3572,12 @@
       <c r="C15" s="3">
         <v>7.5700000000000003E-3</v>
       </c>
+      <c r="D15" s="3">
+        <v>3.5599999999999998E-3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.5129999999999999E-2</v>
+      </c>
       <c r="F15" s="3">
         <v>7.0400000000000003E-3</v>
       </c>
@@ -3549,6 +3595,12 @@
       <c r="C16" s="3">
         <v>0.16483</v>
       </c>
+      <c r="D16" s="3">
+        <v>5.79E-3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.17978</v>
+      </c>
       <c r="F16" s="3">
         <v>8.8650000000000007E-2</v>
       </c>
@@ -3566,6 +3618,12 @@
       <c r="C17" s="3">
         <v>9.9110000000000004E-2</v>
       </c>
+      <c r="D17" s="3">
+        <v>2.879E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.5769999999999998E-2</v>
+      </c>
       <c r="F17" s="3">
         <v>0.13891000000000001</v>
       </c>
@@ -3582,6 +3640,12 @@
       </c>
       <c r="C18" s="3">
         <v>6.726E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.17838999999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6.2509999999999996E-2</v>
       </c>
       <c r="F18" s="3">
         <v>0.29059000000000001</v>
